--- a/playground/Lotto/results/w real results.xlsx
+++ b/playground/Lotto/results/w real results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaoThon\tThon\heartrhythmbox\playground\Lotto\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB48319-C15D-40DC-902D-33C17978FF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D5C82-8775-41D0-ADE8-B51E4EB6DC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
+    <workbookView xWindow="1520" yWindow="380" windowWidth="26020" windowHeight="14020" activeTab="1" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2digit" sheetId="1" r:id="rId1"/>
@@ -622,10 +622,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,23 +942,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9013F9EE-688D-4B0E-B376-72B957873B96}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.69921875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.8984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.8984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="28"/>
+    <col min="1" max="1" width="25.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="24.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="16">
         <v>45659</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="20">
         <v>45674</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="20">
         <v>45689</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="24">
         <v>45704</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="29">
         <v>45717</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="29">
         <v>45732</v>
       </c>
@@ -1149,52 +1149,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000FCEA5-4E34-4D70-BCCF-7C1EB924C859}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" style="30"/>
-    <col min="2" max="3" width="22.296875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="30" customWidth="1"/>
+    <col min="2" max="3" width="22.26953125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="30" customWidth="1"/>
     <col min="5" max="16384" width="16" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <v>0.24310000000000001</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32">
         <v>0.2422</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="32">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31">
         <v>45732</v>
       </c>
       <c r="B4" s="30">

--- a/playground/Lotto/results/w real results.xlsx
+++ b/playground/Lotto/results/w real results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaoThon\tThon\heartrhythmbox\playground\Lotto\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D5C82-8775-41D0-ADE8-B51E4EB6DC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02535BB-C53C-4CB7-98BE-8D170234F1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="380" windowWidth="26020" windowHeight="14020" activeTab="1" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2digit" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Model 1</t>
   </si>
@@ -157,16 +157,14 @@
       <name val="Anek Latin SemiCondensed Medium"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Anek Latin Medium"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Anek Latin SemiCondensed Medium"/>
     </font>
   </fonts>
   <fills count="6">
@@ -615,15 +613,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -940,25 +938,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9013F9EE-688D-4B0E-B376-72B957873B96}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.65" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="25.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.8984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.8984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -979,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -998,7 +996,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1017,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" ht="24.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="16">
         <v>45659</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="20">
         <v>45674</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="20">
         <v>45689</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" ht="24.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="24">
         <v>45704</v>
       </c>
@@ -1111,32 +1109,65 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="29">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="32">
         <v>45717</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="31">
         <v>31</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="31">
         <v>33</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="31">
         <v>99</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="31">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="29">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.26040000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="32">
         <v>45732</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D10" s="31">
         <v>66</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F10" s="31">
         <v>52</v>
+      </c>
+      <c r="G10" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0.25979999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="31">
+        <v>27</v>
+      </c>
+      <c r="F12" s="31">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1147,71 +1178,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000FCEA5-4E34-4D70-BCCF-7C1EB924C859}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="30"/>
-    <col min="2" max="3" width="22.26953125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="16" style="30"/>
+    <col min="1" max="1" width="16" style="28"/>
+    <col min="2" max="3" width="22.296875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="16" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="30">
         <v>0.24310000000000001</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30">
         <v>0.2422</v>
       </c>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="32" t="s">
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31">
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4" s="29">
         <v>45732</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>126</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>121</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>219</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>209</v>
       </c>
+      <c r="F4" s="28">
+        <v>309</v>
+      </c>
+      <c r="G4" s="28">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30">
+        <v>0.2414</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30">
+        <v>0.2387</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B6" s="28">
+        <v>236</v>
+      </c>
+      <c r="C6" s="28">
+        <v>11</v>
+      </c>
+      <c r="D6" s="28">
+        <v>114</v>
+      </c>
+      <c r="E6" s="28">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B2:C2"/>

--- a/playground/Lotto/results/w real results.xlsx
+++ b/playground/Lotto/results/w real results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02535BB-C53C-4CB7-98BE-8D170234F1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E52D4-754E-4CE6-82C6-A6D59FA80399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -615,13 +615,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -941,19 +944,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.65" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.69921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.8984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.8984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="31"/>
+    <col min="1" max="1" width="25.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.8984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.8984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -1110,63 +1113,66 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>45717</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>31</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>33</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>99</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>0.26029999999999998</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>0.26040000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>45732</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>66</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>52</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>0.25740000000000002</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>0.25979999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="31">
+      <c r="A12" s="33">
+        <v>45748</v>
+      </c>
+      <c r="D12" s="30">
         <v>27</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>51</v>
       </c>
     </row>
@@ -1181,7 +1187,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.75" x14ac:dyDescent="0.5"/>
@@ -1201,28 +1207,28 @@
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="32">
         <v>0.24310000000000001</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32">
         <v>0.2422</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="29">
@@ -1249,16 +1255,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="29"/>
-      <c r="B5" s="30">
+      <c r="B5" s="32">
         <v>0.2414</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
         <v>0.2387</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6" s="29">
+        <v>45748</v>
+      </c>
       <c r="B6" s="28">
         <v>236</v>
       </c>
@@ -1274,13 +1283,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/playground/Lotto/results/w real results.xlsx
+++ b/playground/Lotto/results/w real results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E52D4-754E-4CE6-82C6-A6D59FA80399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5101CA-CE03-4BEA-8DE5-7DC89852BAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" activeTab="1" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2digit" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Model 1</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Real Results</t>
+  </si>
+  <si>
+    <t>2digits</t>
   </si>
 </sst>
 </file>
@@ -621,10 +624,10 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -941,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9013F9EE-688D-4B0E-B376-72B957873B96}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.65" x14ac:dyDescent="0.55000000000000004"/>
@@ -1166,7 +1169,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>45748</v>
       </c>
       <c r="D12" s="30">
@@ -1174,6 +1177,28 @@
       </c>
       <c r="F12" s="30">
         <v>51</v>
+      </c>
+      <c r="G12" s="30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.2339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="30">
+        <v>26</v>
+      </c>
+      <c r="F14" s="30">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1184,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000FCEA5-4E34-4D70-BCCF-7C1EB924C859}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.75" x14ac:dyDescent="0.5"/>
@@ -1198,39 +1223,42 @@
     <col min="5" max="16384" width="16" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="33">
         <v>0.24310000000000001</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33">
         <v>0.2422</v>
       </c>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B3" s="32" t="s">
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G3" s="33"/>
+      <c r="H3" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="29">
         <v>45732</v>
       </c>
@@ -1252,19 +1280,22 @@
       <c r="G4" s="28">
         <v>457</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H4" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="29"/>
-      <c r="B5" s="32">
+      <c r="B5" s="33">
         <v>0.2414</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33">
         <v>0.2387</v>
       </c>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="29">
         <v>45748</v>
       </c>
@@ -1280,16 +1311,54 @@
       <c r="E6" s="28">
         <v>142</v>
       </c>
+      <c r="F6" s="28">
+        <v>180</v>
+      </c>
+      <c r="G6" s="28">
+        <v>666</v>
+      </c>
+      <c r="H6" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B7" s="33">
+        <v>0.246</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
+        <v>0.246</v>
+      </c>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="29">
+        <v>45763</v>
+      </c>
+      <c r="B8" s="28">
+        <v>166</v>
+      </c>
+      <c r="C8" s="28">
+        <v>26</v>
+      </c>
+      <c r="D8" s="28">
+        <v>406</v>
+      </c>
+      <c r="E8" s="28">
+        <v>319</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/playground/Lotto/results/w real results.xlsx
+++ b/playground/Lotto/results/w real results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5101CA-CE03-4BEA-8DE5-7DC89852BAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0DBD7-A85C-4C68-B5AC-BB805B83151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" activeTab="1" xr2:uid="{C68E849F-AFB7-4848-A60A-76F27185AFB5}"/>
   </bookViews>
@@ -947,7 +947,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.65" x14ac:dyDescent="0.55000000000000004"/>
@@ -1200,6 +1200,9 @@
       <c r="F14" s="30">
         <v>99</v>
       </c>
+      <c r="G14" s="30">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1212,7 +1215,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.75" x14ac:dyDescent="0.5"/>
@@ -1346,6 +1349,15 @@
       </c>
       <c r="E8" s="28">
         <v>319</v>
+      </c>
+      <c r="F8" s="28">
+        <v>474</v>
+      </c>
+      <c r="G8" s="28">
+        <v>760</v>
+      </c>
+      <c r="H8" s="28">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
